--- a/贝叶斯危化品仓储风险分析/code/data/风险等级数据.xlsx
+++ b/贝叶斯危化品仓储风险分析/code/data/风险等级数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,120 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>工作性质</t>
+          <t>操作技能1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>是否关注</t>
+          <t>制度执行1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>操作技能1</t>
+          <t>管理能力1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>制度执行1</t>
+          <t>维护保养1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>管理能力1</t>
+          <t>设施设备1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>维护保养1</t>
+          <t>库存管理1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>设施设备1</t>
+          <t>化学反应1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>库存管理1</t>
+          <t>自然天气1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>化学反应1</t>
+          <t>操作技能2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>自然天气1</t>
+          <t>制度执行2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>操作技能2</t>
+          <t>管理能力2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>制度执行2</t>
+          <t>维护保养2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>管理能力2</t>
+          <t>设施设备2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>维护保养2</t>
+          <t>库存管理2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>设施设备2</t>
+          <t>化学反应2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>库存管理2</t>
+          <t>自然天气2</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>化学反应2</t>
+          <t>A1操作技能</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>自然天气2</t>
+          <t>A2制度执行</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>A1操作技能</t>
+          <t>A3管理能力</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>A2制度执行</t>
+          <t>A4维修保养</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>A3管理能力</t>
+          <t>A5设施设备</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>A4维修保养</t>
+          <t>A6库存管理</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>A5设施设备</t>
+          <t>A7化学反应</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>A6库存管理</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A7化学反应</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>A8自然天气</t>
         </is>
@@ -567,37 +557,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -606,23 +596,27 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -632,12 +626,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -646,16 +640,6 @@
         </is>
       </c>
       <c r="X2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -663,77 +647,81 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -742,16 +730,6 @@
         </is>
       </c>
       <c r="X3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -759,10 +737,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -806,11 +784,15 @@
       <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -838,16 +820,6 @@
         </is>
       </c>
       <c r="X4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -855,10 +827,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -902,11 +874,15 @@
       <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -934,16 +910,6 @@
         </is>
       </c>
       <c r="X5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -951,34 +917,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -996,17 +962,21 @@
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1026,20 +996,10 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1059,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -1086,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
@@ -1094,11 +1054,15 @@
       <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1117,7 +1081,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1126,16 +1090,6 @@
         </is>
       </c>
       <c r="X7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1143,95 +1097,89 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1239,10 +1187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -1286,11 +1234,15 @@
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1318,16 +1270,6 @@
         </is>
       </c>
       <c r="X9" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1335,10 +1277,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1350,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1380,13 +1322,17 @@
         <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1414,16 +1360,6 @@
         </is>
       </c>
       <c r="X10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1431,10 +1367,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -1478,11 +1414,15 @@
       <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1510,16 +1450,6 @@
         </is>
       </c>
       <c r="X11" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1527,72 +1457,76 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1602,20 +1536,10 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1623,95 +1547,89 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -1719,13 +1637,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -1737,44 +1655,48 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1798,16 +1720,6 @@
         </is>
       </c>
       <c r="X14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -1815,10 +1727,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1862,11 +1774,15 @@
       <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1894,16 +1810,6 @@
         </is>
       </c>
       <c r="X15" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1911,10 +1817,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -1923,22 +1829,22 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1956,13 +1862,17 @@
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1976,30 +1886,20 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -2007,16 +1907,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2054,11 +1954,15 @@
       <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2086,16 +1990,6 @@
         </is>
       </c>
       <c r="X17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2103,19 +1997,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
@@ -2124,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -2139,22 +2033,26 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2182,16 +2080,6 @@
         </is>
       </c>
       <c r="X18" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2199,10 +2087,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -2246,11 +2134,15 @@
       <c r="P19" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2278,16 +2170,6 @@
         </is>
       </c>
       <c r="X19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2295,62 +2177,66 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2360,12 +2246,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2374,16 +2260,6 @@
         </is>
       </c>
       <c r="X20" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2391,58 +2267,62 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2451,12 +2331,12 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2466,20 +2346,10 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2487,19 +2357,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -2511,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -2520,25 +2390,29 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2557,7 +2431,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -2566,16 +2440,6 @@
         </is>
       </c>
       <c r="X22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -2583,7 +2447,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -2630,11 +2494,15 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2662,16 +2530,6 @@
         </is>
       </c>
       <c r="X23" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2682,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -2726,11 +2584,15 @@
       <c r="P24" t="n">
         <v>2</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2758,16 +2620,6 @@
         </is>
       </c>
       <c r="X24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2775,10 +2627,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
         <v>5</v>
@@ -2805,28 +2657,32 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>5</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2854,16 +2710,6 @@
         </is>
       </c>
       <c r="X25" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -2871,7 +2717,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -2918,11 +2764,15 @@
       <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2950,16 +2800,6 @@
         </is>
       </c>
       <c r="X26" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -2967,22 +2807,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -3000,13 +2840,13 @@
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>4</v>
@@ -3014,30 +2854,34 @@
       <c r="P27" t="n">
         <v>2</v>
       </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -3046,16 +2890,6 @@
         </is>
       </c>
       <c r="X27" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3063,10 +2897,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -3075,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3087,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -3099,10 +2933,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>3</v>
@@ -3110,11 +2944,15 @@
       <c r="P28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3128,12 +2966,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3142,16 +2980,6 @@
         </is>
       </c>
       <c r="X28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3159,10 +2987,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
@@ -3177,16 +3005,16 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -3206,11 +3034,15 @@
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3238,16 +3070,6 @@
         </is>
       </c>
       <c r="X29" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -3255,10 +3077,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
@@ -3285,32 +3107,36 @@
         <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3320,12 +3146,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3334,16 +3160,6 @@
         </is>
       </c>
       <c r="X30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -3351,31 +3167,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
@@ -3398,25 +3214,29 @@
       <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -3430,16 +3250,6 @@
         </is>
       </c>
       <c r="X31" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -3447,7 +3257,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -3494,11 +3304,15 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3526,16 +3340,6 @@
         </is>
       </c>
       <c r="X32" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -3543,10 +3347,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -3590,11 +3394,15 @@
       <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3622,16 +3430,6 @@
         </is>
       </c>
       <c r="X33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3639,13 +3437,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -3669,28 +3467,32 @@
         <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
         <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3699,7 +3501,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -3709,7 +3511,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -3718,16 +3520,6 @@
         </is>
       </c>
       <c r="X34" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3735,58 +3527,62 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
         <v>4</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3795,7 +3591,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -3805,25 +3601,15 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -3831,19 +3617,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
         <v>5</v>
@@ -3855,10 +3641,10 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>4</v>
@@ -3878,15 +3664,19 @@
       <c r="P36" t="n">
         <v>4</v>
       </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3896,7 +3686,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3910,16 +3700,6 @@
         </is>
       </c>
       <c r="X36" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -3927,10 +3707,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
         <v>5</v>
@@ -3974,11 +3754,15 @@
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -4010,14 +3794,2974 @@
           <t>H</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>H</t>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>4</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
